--- a/EU_AL.xlsx
+++ b/EU_AL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="130">
   <si>
     <t>PAIS</t>
   </si>
@@ -19,22 +19,22 @@
     <t>CONTINENTE</t>
   </si>
   <si>
-    <t>Tipo de gobierno</t>
-  </si>
-  <si>
-    <t>Legislative branch</t>
-  </si>
-  <si>
-    <t>Deuda externa</t>
-  </si>
-  <si>
-    <t>PBI per capita ($)</t>
-  </si>
-  <si>
-    <t>Tasa de inflación (%)</t>
-  </si>
-  <si>
-    <t>Division Administrativa</t>
+    <t>reg_pol</t>
+  </si>
+  <si>
+    <t>cam</t>
+  </si>
+  <si>
+    <t>pobla</t>
+  </si>
+  <si>
+    <t>PBI_perk</t>
+  </si>
+  <si>
+    <t>tasa_infla</t>
+  </si>
+  <si>
+    <t>div_admi</t>
   </si>
   <si>
     <t>Albania</t>
@@ -43,7 +43,7 @@
     <t>Europa</t>
   </si>
   <si>
-    <t>República parlamentaria</t>
+    <t>Republica parlamentaria</t>
   </si>
   <si>
     <t>unicameral</t>
@@ -73,7 +73,7 @@
     <t>8.55</t>
   </si>
   <si>
-    <t>Bielorrusioa</t>
+    <t>Belarús</t>
   </si>
   <si>
     <t>Republica presidencial</t>
@@ -82,16 +82,13 @@
     <t>15.21</t>
   </si>
   <si>
-    <t>Belgica</t>
+    <t>Bélgica</t>
   </si>
   <si>
     <t>Monarquia constitucional</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Republica parlamentaria</t>
+    <t>Bosnia y Herzegovina</t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -109,7 +106,7 @@
     <t>Chipre</t>
   </si>
   <si>
-    <t>Chequia</t>
+    <t>República Checa</t>
   </si>
   <si>
     <t>Dinamarca</t>
@@ -139,10 +136,7 @@
     <t>9.65</t>
   </si>
   <si>
-    <t>Santa Sede (Ciudad del Vaticano)</t>
-  </si>
-  <si>
-    <t>Hungria</t>
+    <t>Hungría</t>
   </si>
   <si>
     <t>14.61</t>
@@ -181,6 +175,9 @@
     <t>Lituania</t>
   </si>
   <si>
+    <t>Republica semipresidencial</t>
+  </si>
+  <si>
     <t>19.71</t>
   </si>
   <si>
@@ -196,19 +193,19 @@
     <t>6.15</t>
   </si>
   <si>
-    <t>Moldavia</t>
+    <t>República de Moldova</t>
   </si>
   <si>
     <t>28.74</t>
   </si>
   <si>
-    <t>Monaco</t>
+    <t>Mónaco</t>
   </si>
   <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Paises Bajos</t>
+    <t>Países Bajos</t>
   </si>
   <si>
     <t>Macedonia del Norte</t>
@@ -241,7 +238,7 @@
     <t>11.98</t>
   </si>
   <si>
-    <t>Eslovaquia</t>
+    <t>República Eslovaca</t>
   </si>
   <si>
     <t>12.77</t>
@@ -331,13 +328,13 @@
     <t>9.77</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>Perú</t>
   </si>
   <si>
     <t>8.33</t>
   </si>
   <si>
-    <t>Surinam</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>52.45</t>
@@ -355,10 +352,10 @@
     <t>6.89</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Panama</t>
+    <t>México</t>
+  </si>
+  <si>
+    <t>Panamá</t>
   </si>
   <si>
     <t>2.86</t>
@@ -388,7 +385,22 @@
     <t>6.28</t>
   </si>
   <si>
-    <t>Guayana Francesa</t>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Estado comunista</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>8.81</t>
+  </si>
+  <si>
+    <t>Haití</t>
+  </si>
+  <si>
+    <t>33.98</t>
   </si>
 </sst>
 </file>
@@ -667,8 +679,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.63"/>
-    <col customWidth="1" hidden="1" min="2" max="2" width="21.25"/>
-    <col customWidth="1" min="3" max="3" width="21.25"/>
+    <col customWidth="1" min="2" max="2" width="21.25"/>
+    <col customWidth="1" min="3" max="3" width="22.38"/>
     <col customWidth="1" min="4" max="4" width="16.5"/>
     <col customWidth="1" min="6" max="6" width="14.25"/>
     <col customWidth="1" min="7" max="7" width="16.5"/>
@@ -714,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1">
-        <v>10455.0</v>
+        <v>3107100.0</v>
       </c>
       <c r="F2" s="2">
         <v>17300.0</v>
@@ -739,6 +751,9 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1">
+        <v>85370.0</v>
+      </c>
       <c r="F3" s="1">
         <v>63800.0</v>
       </c>
@@ -762,6 +777,9 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="1">
+        <v>8967982.0</v>
+      </c>
       <c r="F4" s="1">
         <v>65800.0</v>
       </c>
@@ -786,7 +804,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="1">
-        <v>39.794</v>
+        <v>9501451.0</v>
       </c>
       <c r="F5" s="1">
         <v>26500.0</v>
@@ -811,6 +829,9 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E6" s="1">
+        <v>1.1977634E7</v>
+      </c>
       <c r="F6" s="1">
         <v>63500.0</v>
       </c>
@@ -829,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>12885.0</v>
+        <v>3798671.0</v>
       </c>
       <c r="F7" s="1">
         <v>19400.0</v>
@@ -849,25 +870,25 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>47206.0</v>
+        <v>6782659.0</v>
       </c>
       <c r="F8" s="1">
         <v>32500.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1">
         <v>28.0</v>
@@ -875,22 +896,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4150116.0</v>
       </c>
       <c r="F9" s="1">
         <v>40100.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1">
         <v>20.0</v>
@@ -898,7 +922,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -909,6 +933,9 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E10" s="1">
+        <v>1320525.0</v>
+      </c>
       <c r="F10" s="1">
         <v>50200.0</v>
       </c>
@@ -921,16 +948,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.083789E7</v>
       </c>
       <c r="F11" s="1">
         <v>48800.0</v>
@@ -944,7 +974,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -955,6 +985,9 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E12" s="1">
+        <v>5973136.0</v>
+      </c>
       <c r="F12" s="1">
         <v>71200.0</v>
       </c>
@@ -967,16 +1000,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1193791.0</v>
       </c>
       <c r="F13" s="1">
         <v>43900.0</v>
@@ -990,16 +1026,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5626414.0</v>
       </c>
       <c r="F14" s="1">
         <v>58400.0</v>
@@ -1013,7 +1052,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -1024,11 +1063,14 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E15" s="1">
+        <v>6.8374591E7</v>
+      </c>
       <c r="F15" s="1">
         <v>55000.0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1">
         <v>18.0</v>
@@ -1036,22 +1078,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.41191E7</v>
       </c>
       <c r="F16" s="1">
         <v>62600.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1">
         <v>16.0</v>
@@ -1059,22 +1104,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0461091E7</v>
       </c>
       <c r="F17" s="1">
         <v>35300.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1">
         <v>13.0</v>
@@ -1082,25 +1130,28 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9855745.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>40700.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H18" s="1">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
@@ -1111,19 +1162,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E19" s="1">
+        <v>364036.0</v>
+      </c>
       <c r="F19" s="1">
-        <v>40700.0</v>
+        <v>65800.0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="1">
-        <v>19.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="20">
@@ -1134,19 +1188,22 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5233461.0</v>
       </c>
       <c r="F20" s="1">
-        <v>65800.0</v>
+        <v>122600.0</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H20" s="1">
-        <v>64.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="21">
@@ -1157,42 +1214,48 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E21" s="1">
+        <v>6.0964931E7</v>
+      </c>
       <c r="F21" s="1">
-        <v>122600.0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>52100.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45330.0</v>
       </c>
       <c r="H21" s="1">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1977093.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13000.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="1">
-        <v>52100.0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45330.0</v>
-      </c>
       <c r="H22" s="1">
-        <v>20.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="23">
@@ -1203,22 +1266,22 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1">
-        <v>3639.0</v>
+        <v>1801246.0</v>
       </c>
       <c r="F23" s="1">
-        <v>13000.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="1">
-        <v>38.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="24">
@@ -1229,137 +1292,152 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1">
-        <v>3800.0</v>
+      <c r="E24" s="1">
+        <v>40272.0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H24" s="1">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
+      <c r="E25" s="1">
+        <v>2628186.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>47000.0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1">
-        <v>11.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E26" s="1">
+        <v>671254.0</v>
+      </c>
       <c r="F26" s="1">
-        <v>47000.0</v>
+        <v>137100.0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H26" s="1">
-        <v>60.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E27" s="1">
+        <v>469730.0</v>
+      </c>
       <c r="F27" s="1">
-        <v>137100.0</v>
+        <v>56400.0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="1">
-        <v>12.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E28" s="1">
+        <v>3599528.0</v>
+      </c>
       <c r="F28" s="1">
-        <v>56400.0</v>
+        <v>15200.0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H28" s="1">
-        <v>68.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="1">
-        <v>9723.0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>15200.0</v>
+        <v>31813.0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="H29" s="1">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1370,19 +1448,22 @@
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
+      <c r="E30" s="1">
+        <v>599849.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>26200.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45395.0</v>
       </c>
       <c r="H30" s="1">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -1393,19 +1474,22 @@
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.7772378E7</v>
       </c>
       <c r="F31" s="1">
-        <v>26200.0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>45395.0</v>
+        <v>70000.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10.0</v>
       </c>
       <c r="H31" s="1">
-        <v>25.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="32">
@@ -1416,19 +1500,22 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2135622.0</v>
       </c>
       <c r="F32" s="1">
-        <v>70000.0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10.0</v>
+        <v>22900.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45336.0</v>
       </c>
       <c r="H32" s="1">
-        <v>12.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="33">
@@ -1439,65 +1526,74 @@
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E33" s="1">
+        <v>5509733.0</v>
+      </c>
       <c r="F33" s="1">
-        <v>22900.0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>45336.0</v>
+        <v>91100.0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H33" s="1">
-        <v>80.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.874631E7</v>
       </c>
       <c r="F34" s="1">
-        <v>91100.0</v>
+        <v>43800.0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" s="1">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.0207177E7</v>
       </c>
       <c r="F35" s="1">
-        <v>43800.0</v>
+        <v>41200.0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H35" s="1">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="36">
@@ -1508,19 +1604,22 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.8148155E7</v>
       </c>
       <c r="F36" s="1">
-        <v>41200.0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>48</v>
+        <v>39700.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45517.0</v>
       </c>
       <c r="H36" s="1">
-        <v>18.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="37">
@@ -1531,19 +1630,22 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="1">
-        <v>39700.0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>45517.0</v>
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>35095.0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H37" s="1">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="38">
@@ -1554,93 +1656,105 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
+      <c r="E38" s="1">
+        <v>6652212.0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>23700.0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H38" s="1">
-        <v>9.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E39" s="1">
+        <v>5563649.0</v>
+      </c>
       <c r="F39" s="1">
-        <v>23700.0</v>
+        <v>38600.0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" s="1">
-        <v>117.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2097893.0</v>
       </c>
       <c r="F40" s="1">
-        <v>38600.0</v>
+        <v>47600.0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" s="1">
-        <v>8.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E41" s="1">
+        <v>4.7280433E7</v>
+      </c>
       <c r="F41" s="1">
-        <v>47600.0</v>
+        <v>45800.0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H41" s="1">
-        <v>200.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>9</v>
@@ -1649,85 +1763,94 @@
         <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.0589835E7</v>
       </c>
       <c r="F42" s="1">
-        <v>45800.0</v>
+        <v>64600.0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" s="1">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8860574.0</v>
       </c>
       <c r="F43" s="1">
-        <v>64600.0</v>
+        <v>83000.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H43" s="1">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.5661826E7</v>
       </c>
       <c r="F44" s="1">
-        <v>83000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" s="1">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1">
-        <v>132410.0</v>
+        <v>6.8459055E7</v>
       </c>
       <c r="F45" s="1">
-        <v>15000.0</v>
+        <v>54500.0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" s="1">
         <v>24.0</v>
@@ -1735,33 +1858,36 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E46" s="1">
+        <v>4.6994384E7</v>
+      </c>
       <c r="F46" s="1">
-        <v>54500.0</v>
+        <v>27100.0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="H46" s="1">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>21</v>
@@ -1770,24 +1896,24 @@
         <v>18</v>
       </c>
       <c r="E47" s="1">
-        <v>247681.0</v>
+        <v>1.2311974E7</v>
       </c>
       <c r="F47" s="1">
-        <v>27100.0</v>
+        <v>9600.0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="H47" s="1">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>21</v>
@@ -1796,24 +1922,24 @@
         <v>18</v>
       </c>
       <c r="E48" s="1">
-        <v>15930.0</v>
+        <v>2.20051512E8</v>
       </c>
       <c r="F48" s="1">
-        <v>9600.0</v>
+        <v>18100.0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H48" s="1">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>21</v>
@@ -1822,24 +1948,24 @@
         <v>18</v>
       </c>
       <c r="E49" s="1">
-        <v>578599.0</v>
+        <v>1.8664652E7</v>
       </c>
       <c r="F49" s="1">
-        <v>18100.0</v>
+        <v>29500.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H49" s="1">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>21</v>
@@ -1848,68 +1974,65 @@
         <v>18</v>
       </c>
       <c r="E50" s="1">
-        <v>233325.0</v>
+        <v>4.9588357E7</v>
       </c>
       <c r="F50" s="1">
-        <v>29500.0</v>
+        <v>18700.0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H50" s="1">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1">
-        <v>184118.0</v>
+        <v>1.8309984E7</v>
       </c>
       <c r="F51" s="1">
-        <v>18700.0</v>
+        <v>14100.0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H51" s="1">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1">
-        <v>60685.0</v>
+        <v>794099.0</v>
       </c>
       <c r="F52" s="1">
-        <v>14100.0</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="1">
-        <v>24.0</v>
+        <v>37700.0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>45632.0</v>
       </c>
     </row>
     <row r="53">
@@ -1917,56 +2040,59 @@
         <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1">
-        <v>2387.0</v>
+        <v>7522549.0</v>
       </c>
       <c r="F53" s="1">
-        <v>37700.0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>45632.0</v>
+        <v>15200.0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="1">
+        <v>17.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1">
-        <v>24514.0</v>
+        <v>3.2600249E7</v>
       </c>
       <c r="F54" s="1">
-        <v>15200.0</v>
+        <v>15300.0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H54" s="1">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>21</v>
@@ -1975,42 +2101,42 @@
         <v>11</v>
       </c>
       <c r="E55" s="1">
-        <v>88084.0</v>
+        <v>646758.0</v>
       </c>
       <c r="F55" s="1">
-        <v>15300.0</v>
+        <v>18700.0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H55" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E56" s="1">
-        <v>4160.0</v>
+        <v>3425330.0</v>
       </c>
       <c r="F56" s="1">
-        <v>18700.0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>109</v>
+        <v>30600.0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>45300.0</v>
       </c>
       <c r="H56" s="1">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="57">
@@ -2018,25 +2144,25 @@
         <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1">
-        <v>53319.0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>30600.0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>45300.0</v>
+        <v>3.1250306E7</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H57" s="1">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="58">
@@ -2044,7 +2170,7 @@
         <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>21</v>
@@ -2052,68 +2178,74 @@
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>15</v>
+      <c r="E58" s="1">
+        <v>1.8255216E7</v>
+      </c>
+      <c r="F58" s="1">
+        <v>12400.0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="H58" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1">
-        <v>24992.0</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1">
-        <v>12400.0</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>113</v>
+        <v>21800.0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>45542.0</v>
       </c>
       <c r="H59" s="1">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1">
-        <v>600423.0</v>
+        <v>4470241.0</v>
       </c>
       <c r="F60" s="1">
-        <v>21800.0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>45542.0</v>
+        <v>33800.0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H60" s="1">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>21</v>
@@ -2122,21 +2254,24 @@
         <v>11</v>
       </c>
       <c r="E61" s="1">
-        <v>36853.0</v>
+        <v>5265575.0</v>
       </c>
       <c r="F61" s="1">
-        <v>33800.0</v>
+        <v>24700.0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H61" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>21</v>
@@ -2145,21 +2280,24 @@
         <v>11</v>
       </c>
       <c r="E62" s="1">
-        <v>35127.0</v>
+        <v>6676948.0</v>
       </c>
       <c r="F62" s="1">
-        <v>24700.0</v>
+        <v>7000.0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H62" s="1">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>21</v>
@@ -2168,22 +2306,25 @@
         <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>15523.0</v>
+        <v>9529188.0</v>
       </c>
       <c r="F63" s="1">
-        <v>7000.0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>120</v>
+        <v>6400.0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>45544.0</v>
       </c>
       <c r="H63" s="1">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
       </c>
@@ -2191,82 +2332,119 @@
         <v>11</v>
       </c>
       <c r="E64" s="1">
-        <v>11804.0</v>
+        <v>6628702.0</v>
       </c>
       <c r="F64" s="1">
-        <v>6400.0</v>
-      </c>
-      <c r="G64" s="4">
-        <v>45544.0</v>
+        <v>11000.0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>45329.0</v>
       </c>
       <c r="H64" s="1">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="1">
-        <v>21190.0</v>
+        <v>18</v>
+      </c>
+      <c r="E65" s="5">
+        <v>415789.0</v>
       </c>
       <c r="F65" s="1">
-        <v>11000.0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>45329.0</v>
+        <v>12400.0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="H65" s="1">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1465.0</v>
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1.0966038E7</v>
       </c>
       <c r="F66" s="1">
-        <v>12400.0</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>124</v>
+        <v>12300.0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>45417.0</v>
       </c>
       <c r="H66" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1.0815857E7</v>
+      </c>
+      <c r="F67" s="1">
+        <v>22800.0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="H67" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.1753943E7</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3000.0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" s="1">
         <v>10.0</v>
       </c>
     </row>
